--- a/results/agg_results.xlsx
+++ b/results/agg_results.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="100k_NB vs hdc_wkdy" sheetId="1" r:id="rId1"/>
+    <sheet name="10k_NB_hdc80 vs test20" sheetId="3" r:id="rId2"/>
+    <sheet name="10k_Poiss_hdc80 vs test20" sheetId="5" r:id="rId3"/>
+    <sheet name="200k_NB_hdc20 vs test80" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
     <t>1198024_100ksmpl_10ktune_NB | hdc_wkdy.csv</t>
   </si>
@@ -50,13 +53,23 @@
   <si>
     <t>Note: Predictions and comparisons made from the same dataset.</t>
   </si>
+  <si>
+    <t>1198112_10k_NB_hdc-wkdy80 | hdc_wkdy20.csv</t>
+  </si>
+  <si>
+    <t>10k_Poiss_hdc80 vs test20 | hdc_wkdy20.csv</t>
+  </si>
+  <si>
+    <t>Poisson Parameters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -90,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,13 +130,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,6 +173,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plot Params</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -407,6 +454,2395 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3715-47D7-8B9B-3B003BBA617A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494057279"/>
+        <c:axId val="494057695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494057279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494057695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plot Params</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_NB_hdc80 vs test20'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'10k_NB_hdc80 vs test20'!$E$6:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8.7765483576775397E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.39313816009174E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.53351758412882E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6393211180055601E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9873085213124598E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87014689950027202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5926808400954902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5012573142670798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2586695144632607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7841520341386401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9867570048944501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4505774158798399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1159518206838701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1114226127172397</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6367687296369997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5943782351167002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2001776019927499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2031131788898999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4705570033056601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1772622022561499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2627311738170499</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78849431419420901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1427625366943901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.03707932618191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AD1-4EE2-BF39-CC37BC275624}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_NB_hdc80 vs test20'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'10k_NB_hdc80 vs test20'!$F$6:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>12.8107482835397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.1167554618127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.436604256503999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.876111683207199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.527357556936501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.123866121960098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.70540898655379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4607734286066698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.0394893069302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.024270960291499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.520204638044703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.879886907447901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.4216485344113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.174069691199499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.309281948537301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.454227965955099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.263369997953301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.4309888595796</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.2030422588861</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.478571722280002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.5430501489523</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5045109670762802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.271382249761398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5311720137414602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AD1-4EE2-BF39-CC37BC275624}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494057279"/>
+        <c:axId val="494057695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494057279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494057695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent Error </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10k_NB_hdc80 vs test20'!$A$31:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10k_NB_hdc80 vs test20'!$B$31:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.8419999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8419999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-898F-4FA8-A1B4-5B99AF30E6CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10k_NB_hdc80 vs test20'!$A$6:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10k_NB_hdc80 vs test20'!$B$6:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>6.3620512820512804E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8984615384615301E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.29230769230766E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3056410256410299E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.93774358974358E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.56307692307692E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6407061266874298E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5059126743480898E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7384882131306E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9004102564102499E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.56010256410256E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9918731814989399E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0899234366168199E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2802051282051199E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.13570919312067E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9783589743589701E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.94430769230769E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8298461538461502E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4497435897435801E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.15651282051282E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.7569230769230701E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6296410256410201E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.54041025641025E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-898F-4FA8-A1B4-5B99AF30E6CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="678337247"/>
+        <c:axId val="678329343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="678337247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678329343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="678329343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678337247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plot Params</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_Poiss_hdc80 vs test20'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc80 vs test20'!$E$6:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8.7624660511985905E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3557828806477401E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5374861584607802E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0450793372511501E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0156430767949501E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86706394868880698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5805922377457602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.50981188558728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2586636346027795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7873769110691802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9820338974517901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4559659524792004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1074398077481904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1092646353901596</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6416350150695997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5952492399316203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2020535275964699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2018082057834198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4649443781732199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.17187026734875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.26224279644701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78767439796344296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1406711362220201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0334373760206499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27E5-4431-9739-1B51C0740AA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494057279"/>
+        <c:axId val="494057695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494057279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494057695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent Error </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_Poiss_hdc80 vs test20'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Err</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc80 vs test20'!$A$6:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc80 vs test20'!$B$6:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>6.8953846153846097E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2851282051282E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2256410256409797E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.33333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4389743589743598E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6030769230769201E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1337435897435801E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8765635482475497E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.01131589923005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.48317948717948E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8381538461538401E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7881025641025599E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.75381176392086E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9689588383935499E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.31087179487179E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4791794871794798E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7314871794871699E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7696410256410201E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1005128205128199E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8528205128205098E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.43507692307692E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8902564102564E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.92297435897435E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5971282051282001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B252-40CE-9915-6F3F9AB3D560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc80 vs test20'!$A$31:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc80 vs test20'!$B$31:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.84E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.84E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B252-40CE-9915-6F3F9AB3D560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="678337247"/>
+        <c:axId val="678329343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="678337247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678329343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="678329343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678337247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plot Params</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'200k_NB_hdc20 vs test80'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'200k_NB_hdc20 vs test80'!$E$6:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.39784092813456301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3613620405037001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3580761525476701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.34901821863299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3700343854706798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.42392225714406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3795108822253401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0534716927432499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8987667301553799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2647831144089601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9170937342472398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8909327505691</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7790845246036602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7711864289174102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9072756124105101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.64538786352845</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3722576379187399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0566806185380102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0427336691639302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.36856974530839</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0554220941828998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3611233360974402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.03865862148885</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3650506762385302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B62-48BD-B549-FDE80021CAD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'200k_NB_hdc20 vs test80'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'200k_NB_hdc20 vs test80'!$F$6:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.5674120758578303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.84792825502424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8561945919158598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8538229265045101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8378046632090701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8112610557376798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8327412562974699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7964107302896997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0848760649902696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4060254086632398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0895627106702799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0995045353070001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5011814177942897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4959465955650302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0933406677472197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2742878943746598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8381722464151999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8044769686497304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8035437305503201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8468791744840698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8015659880307497</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8601976396989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8161270486719099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8552572512552201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B62-48BD-B549-FDE80021CAD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -646,7 +3082,2748 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1217,6 +6394,293 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>256152</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="0"/>
+          <a:ext cx="8180952" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>256152</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="0"/>
+          <a:ext cx="8180952" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>256152</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="0"/>
+          <a:ext cx="8180952" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1487,8 +6951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,6 +7400,15 @@
         <v>3.0158408765870801</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6">
+        <f>AVERAGE(B5:B28)</f>
+        <v>8.2700543274320543E-3</v>
+      </c>
+    </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>7</v>
@@ -1960,6 +7433,1486 @@
       <c r="F32" s="4">
         <f>_xlfn.STDEV.P(F6:F29)</f>
         <v>9.6464347959315582</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.3620512820512804E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8.7765483576775397E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12.8107482835397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.8984615384615301E-3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.39313816009174E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>11.1167554618127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.29230769230766E-4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.53351758412882E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12.436604256503999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.38666666666666E-3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5.6393211180055601E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>11.876111683207199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4.3056410256410299E-3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.9873085213124598E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>12.527357556936501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2.93774358974358E-2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.87014689950027202</v>
+      </c>
+      <c r="F11" s="4">
+        <v>23.123866121960098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.56307692307692E-2</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.5926808400954902</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8.70540898655379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.6407061266874298E-2</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.5012573142670798</v>
+      </c>
+      <c r="F13" s="4">
+        <v>8.4607734286066698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.5059126743480898E-2</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9.2586695144632607</v>
+      </c>
+      <c r="F14" s="4">
+        <v>18.0394893069302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2.7384882131306E-2</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.7841520341386401</v>
+      </c>
+      <c r="F15" s="4">
+        <v>26.024270960291499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.9004102564102499E-2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.9867570048944501</v>
+      </c>
+      <c r="F16" s="4">
+        <v>32.520204638044703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.56010256410256E-2</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.4505774158798399</v>
+      </c>
+      <c r="F17" s="4">
+        <v>28.879886907447901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.9918731814989399E-2</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6.1159518206838701</v>
+      </c>
+      <c r="F18" s="4">
+        <v>31.4216485344113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.0899234366168199E-2</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6.1114226127172397</v>
+      </c>
+      <c r="F19" s="4">
+        <v>40.174069691199499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2.2802051282051199E-2</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.6367687296369997</v>
+      </c>
+      <c r="F20" s="4">
+        <v>27.309281948537301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2.13570919312067E-2</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.5943782351167002</v>
+      </c>
+      <c r="F21" s="4">
+        <v>21.454227965955099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.9783589743589701E-2</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.2001776019927499</v>
+      </c>
+      <c r="F22" s="4">
+        <v>20.263369997953301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.94430769230769E-2</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.2031131788898999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>18.4309888595796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.8298461538461502E-2</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.4705570033056601</v>
+      </c>
+      <c r="F24" s="4">
+        <v>26.2030422588861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.4497435897435801E-2</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.1772622022561499</v>
+      </c>
+      <c r="F25" s="4">
+        <v>23.478571722280002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.15651282051282E-2</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.2627311738170499</v>
+      </c>
+      <c r="F26" s="4">
+        <v>16.5430501489523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5.7569230769230701E-3</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.78849431419420901</v>
+      </c>
+      <c r="F27" s="4">
+        <v>9.5045109670762802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.6296410256410201E-2</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.1427625366943901</v>
+      </c>
+      <c r="F28" s="4">
+        <v>17.271382249761398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.54041025641025E-2</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.03707932618191</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.5311720137414602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="8">
+        <f>AVERAGE(B5:B28)</f>
+        <v>1.8415851730108106E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4">
+        <f>AVERAGE(E6:E29)</f>
+        <v>3.018259920672417</v>
+      </c>
+      <c r="F31" s="4">
+        <f>AVERAGE(F6:F29)</f>
+        <v>19.254449747923697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4">
+        <f>_xlfn.STDEV.P(E6:E29)</f>
+        <v>2.5402629395241787</v>
+      </c>
+      <c r="F32" s="4">
+        <f>_xlfn.STDEV.P(F6:F29)</f>
+        <v>8.8726962889565435</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.8953846153846097E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8.7624660511985905E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.2851282051282E-3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.3557828806477401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8.2256410256409797E-4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.5374861584607802E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.33333333333333E-4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0450793372511501E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.4389743589743598E-3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.0156430767949501E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2.6030769230769201E-2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.86706394868880698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.1337435897435801E-2</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.5805922377457602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.8765635482475497E-2</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.50981188558728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.01131589923005E-2</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9.2586636346027795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2.48317948717948E-2</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.7873769110691802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.8381538461538401E-2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.9820338974517901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.7881025641025599E-2</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.4559659524792004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.75381176392086E-2</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6.1074398077481904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.9689588383935499E-2</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6.1092646353901596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2.31087179487179E-2</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.6416350150695997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2.4791794871794798E-2</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.5952492399316203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.7314871794871699E-2</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.2020535275964699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.7696410256410201E-2</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.2018082057834198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3.1005128205128199E-2</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.4649443781732199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.8528205128205098E-2</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.17187026734875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.43507692307692E-2</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.26224279644701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7.8902564102564E-3</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.78767439796344296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.92297435897435E-2</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.1406711362220201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.5971282051282001E-2</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.0334373760206499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="8">
+        <f>AVERAGE(B5:B28)</f>
+        <v>1.8385232463120238E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4">
+        <f>AVERAGE(E6:E29)</f>
+        <v>3.0152901594317871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4">
+        <f>_xlfn.STDEV.P(E6:E29)</f>
+        <v>2.5431608230750191</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.0741961722488E-2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.39784092813456301</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.5674120758578303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6.3156593157290303E-2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.3613620405037001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.84792825502424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.6552896977268197E-2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.3580761525476701</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.8561945919158598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.8188293122566995E-2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.34901821863299</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.8538229265045101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6.5503189727624006E-2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.3700343854706798</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.8378046632090701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.8400519228237298E-2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.42392225714406</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.8112610557376798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6.3013949569907995E-2</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.3795108822253401</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.8327412562974699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.8013683693208102E-2</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3.0534716927432499</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.7964107302896997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.39635079698757E-2</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.8987667301553799</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.0848760649902696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.4364988473295999E-2</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.2647831144089601</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.4060254086632398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.3625625259129198E-2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.9170937342472398</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5.0895627106702799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4.8265586167658497E-2</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.8909327505691</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5.0995045353070001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.9368789899719002E-2</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5.7790845246036602</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5.5011814177942897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.8191281049196002E-2</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5.7711864289174102</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5.4959465955650302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4.6771584720602798E-2</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3.9072756124105101</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5.0933406677472197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.6132584548107298E-2</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.64538786352845</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5.2742878943746598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6.5940322470900301E-2</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.3722576379187399</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.8381722464151999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4.1707135511754201E-2</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.0566806185380102</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.8044769686497304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5.0873918059646597E-2</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.0427336691639302</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4.8035437305503201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5.8916488978720802E-2</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.36856974530839</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.8468791744840698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.2229639633507598E-2</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.0554220941828998</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.8015659880307497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.9354941931821999E-2</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.3611233360974402</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.8601976396989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3.62837941349195E-2</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3.03865862148885</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4.8161270486719099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.7256056006643799E-2</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.3650506762385302</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.8552572512552201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6">
+        <f>AVERAGE(B5:B28)</f>
+        <v>4.9111359826410704E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4">
+        <f>AVERAGE(E6:E29)</f>
+        <v>3.1845101547991561</v>
+      </c>
+      <c r="F31" s="4">
+        <f>AVERAGE(F6:F29)</f>
+        <v>4.5447717040710192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4">
+        <f>_xlfn.STDEV.P(E6:E29)</f>
+        <v>1.2320924147223082</v>
+      </c>
+      <c r="F32" s="4">
+        <f>_xlfn.STDEV.P(F6:F29)</f>
+        <v>0.63050141063857179</v>
       </c>
     </row>
   </sheetData>

--- a/results/agg_results.xlsx
+++ b/results/agg_results.xlsx
@@ -198,7 +198,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -586,7 +585,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1690,7 +1688,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1967,7 +1964,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2074,7 +2070,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2587,7 +2582,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2975,7 +2969,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7470,8 +7463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/agg_results.xlsx
+++ b/results/agg_results.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="825" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="100k_NB vs hdc_wkdy" sheetId="1" r:id="rId1"/>
     <sheet name="10k_NB_hdc80 vs test20" sheetId="3" r:id="rId2"/>
     <sheet name="10k_Poiss_hdc80 vs test20" sheetId="5" r:id="rId3"/>
     <sheet name="200k_NB_hdc20 vs test80" sheetId="4" r:id="rId4"/>
+    <sheet name="10k_NB_hdc-wkdy20 vs test80" sheetId="7" r:id="rId5"/>
+    <sheet name="10k_Poiss_hdc-wkdy20 vs test80" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>1198024_100ksmpl_10ktune_NB | hdc_wkdy.csv</t>
   </si>
@@ -61,6 +63,12 @@
   </si>
   <si>
     <t>Poisson Parameters</t>
+  </si>
+  <si>
+    <t>1199445_10k_NB_hdc-wkdy20 | hdc_wkdy80.csv</t>
+  </si>
+  <si>
+    <t>1199600_10k_Poiss_hdc-wkdy20 | hdc_wkdy80.csv</t>
   </si>
 </sst>
 </file>
@@ -614,6 +622,519 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Err %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_Poiss_hdc-wkdy20 vs test80'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Err</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc-wkdy20 vs test80'!$A$6:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc-wkdy20 vs test80'!$B$6:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9.7547049441786202E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1291866028708401E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.89792663476877E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2359170653907499E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8922488038277501E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3822200956937701E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0443189792663401E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2554347826086899E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.43530701754385E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7848165869218496E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.01554066985645E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2314896331738399E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9040151351396199E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.30230082463607E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3613269537480001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9781818181818096E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6006379585326998E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.03849441786283E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3800063795853201E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8737735247208901E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8404465709728793E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.2524401913875592E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5111961722487997E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0914449760765501E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-795D-4E72-902F-B0C7B00242B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc-wkdy20 vs test80'!$A$31:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc-wkdy20 vs test80'!$B$31:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0608503720598404E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0608503720598404E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-795D-4E72-902F-B0C7B00242B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="835466751"/>
+        <c:axId val="835460095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="835466751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="835460095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="835460095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="835466751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1688,6 +2209,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1964,6 +2486,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2070,6 +2593,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2582,6 +3106,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2969,6 +3494,1378 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plot Params</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_NB_hdc-wkdy20 vs test80'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'10k_NB_hdc-wkdy20 vs test80'!$E$6:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.16162712079097999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17698843725173599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17016633877814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4853970093772801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7460882573686399E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.07119918404929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4176638269092998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8700276593663503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2686410177843399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7341818064579302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7764264332644699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3276868481808597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7610305705505498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3206576151766098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1568978126484399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8605706242801503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2373467680984298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0031704214153199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1127220630112502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4631198087595201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3465356105427899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.799991149561329</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25154629347215</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90207015550731695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8274-4319-8F48-AC3334773D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_NB_hdc-wkdy20 vs test80'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alpha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'10k_NB_hdc-wkdy20 vs test80'!$F$6:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>11.983550168858301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8488942492066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1914923578965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3433679083614298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.507814526556899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.887777275666199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.5125459496427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9649699982776001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.325249760674801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.4427788143283</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.775742340112199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.534021763835799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.878084261822899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.7706086251732</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.8308056116899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.786770331378801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.274315743707799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.765865029819999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.938184451406601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.738901140330499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.3001150433508</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.932630846577799</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9092754888238899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.850341254242901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8274-4319-8F48-AC3334773D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494057279"/>
+        <c:axId val="494057695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494057279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494057695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_NB_hdc-wkdy20 vs test80'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Err</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10k_NB_hdc-wkdy20 vs test80'!$A$6:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10k_NB_hdc-wkdy20 vs test80'!$B$6:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.6080382775119597E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8625199362041395E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1645933014353898E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.26258373205742E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0922488038277402E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.61822009569377E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4218564593301401E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.27247751730148E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1439965602493799E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8932532918066806E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4514322169059001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.40371929824561E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0076812986383401E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5167454532038599E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4671641338308001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1921966530467197E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7275279106857998E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.55314832535885E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8095821371610799E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6055438596491198E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.8875279106858003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5518979266347603E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.19993620414672E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9341116427432199E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01C6-4510-995F-456AE095CE72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10k_NB_hdc-wkdy20 vs test80'!$A$31:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10k_NB_hdc-wkdy20 vs test80'!$B$31:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0723199808254386E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0723199808254386E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01C6-4510-995F-456AE095CE72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="744012943"/>
+        <c:axId val="744005871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="744012943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744005871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="744005871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744012943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plot Params</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_Poiss_hdc-wkdy20 vs test80'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc-wkdy20 vs test80'!$E$6:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.160398309447881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3544204003503298E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3851589550843998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0605330993495199E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3399751633019003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.06819277022148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.41811224574576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8228893847758503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2478125319500197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7300199338973696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7648126872863599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3070072552559999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7386345504984</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3020500480436201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1494961357440099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.84481107199462</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.22628546632972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0003583040491701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0922104296867801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4573726522323298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3414871816682199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79789553670282498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2440432613116199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89684086318536105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CCF-4238-9C89-A478A63C01FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10k_Poiss_hdc-wkdy20 vs test80'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'10k_Poiss_hdc-wkdy20 vs test80'!$F$6:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CCF-4238-9C89-A478A63C01FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494057279"/>
+        <c:axId val="494057695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494057279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494057695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494057279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3036,6 +4933,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3275,6 +5212,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3778,8 +5835,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3806,8 +5863,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3908,7 +5965,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3940,10 +5997,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3983,22 +6040,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4103,8 +6161,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4236,19 +6294,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4262,6 +6321,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4281,8 +6351,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4309,8 +6379,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4411,7 +6481,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4443,10 +6513,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4486,23 +6556,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4607,8 +6676,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4740,20 +6809,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4767,17 +6835,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4797,8 +6854,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4825,8 +6882,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4927,7 +6984,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4959,10 +7016,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5002,22 +7059,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5122,8 +7180,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5255,19 +7313,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5281,6 +7340,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5300,8 +7370,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5328,8 +7398,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5430,7 +7500,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5462,6 +7532,509 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -5817,6 +8390,1528 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6679,6 +10774,216 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>284724</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="0"/>
+          <a:ext cx="8209524" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>284724</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="0"/>
+          <a:ext cx="8209524" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7463,7 +11768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
@@ -7992,7 +12297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -8426,7 +12731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -8907,6 +13212,1004 @@
         <f>_xlfn.STDEV.P(F6:F29)</f>
         <v>0.63050141063857179</v>
       </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7.6080382775119597E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.16162712079097999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>11.983550168858301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6.8625199362041395E-4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.17698843725173599</v>
+      </c>
+      <c r="F7" s="4">
+        <v>11.8488942492066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8.1645933014353898E-4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.17016633877814</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10.1914923578965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.26258373205742E-3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.4853970093772801</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.3433679083614298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4.0922488038277402E-3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7.7460882573686399E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>12.507814526556899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.61822009569377E-2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.07119918404929</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20.887777275666199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.4218564593301401E-2</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.4176638269092998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>17.5125459496427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.27247751730148E-2</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.8700276593663503</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7.9649699982776001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.1439965602493799E-2</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9.2686410177843399</v>
+      </c>
+      <c r="F14" s="4">
+        <v>21.325249760674801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7.8932532918066806E-3</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.7341818064579302</v>
+      </c>
+      <c r="F15" s="4">
+        <v>26.4427788143283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.4514322169059001E-2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.7764264332644699</v>
+      </c>
+      <c r="F16" s="4">
+        <v>21.775742340112199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.40371929824561E-2</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.3276868481808597</v>
+      </c>
+      <c r="F17" s="4">
+        <v>21.534021763835799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.0076812986383401E-2</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6.7610305705505498</v>
+      </c>
+      <c r="F18" s="4">
+        <v>18.878084261822899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.5167454532038599E-2</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6.3206576151766098</v>
+      </c>
+      <c r="F19" s="4">
+        <v>28.7706086251732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.4671641338308001E-2</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5.1568978126484399</v>
+      </c>
+      <c r="F20" s="4">
+        <v>17.8308056116899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8.1921966530467197E-3</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.8605706242801503</v>
+      </c>
+      <c r="F21" s="4">
+        <v>16.786770331378801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4.7275279106857998E-3</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.2373467680984298</v>
+      </c>
+      <c r="F22" s="4">
+        <v>21.274315743707799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.55314832535885E-2</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.0031704214153199</v>
+      </c>
+      <c r="F23" s="4">
+        <v>16.765865029819999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.8095821371610799E-2</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.1127220630112502</v>
+      </c>
+      <c r="F24" s="4">
+        <v>11.938184451406601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.6055438596491198E-2</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.4631198087595201</v>
+      </c>
+      <c r="F25" s="4">
+        <v>13.738901140330499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>8.8875279106858003E-3</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.3465356105427899</v>
+      </c>
+      <c r="F26" s="4">
+        <v>13.3001150433508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4.5518979266347603E-3</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.799991149561329</v>
+      </c>
+      <c r="F27" s="4">
+        <v>13.932630846577799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5.19993620414672E-3</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.25154629347215</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7.9092754888238899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1.9341116427432199E-2</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.90207015550731695</v>
+      </c>
+      <c r="F29" s="4">
+        <v>10.850341254242901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6">
+        <f>AVERAGE(B5:B28)</f>
+        <v>1.0723199808254386E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1.0723199808254386E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4">
+        <f>AVERAGE(E6:E29)</f>
+        <v>3.4480468940753415</v>
+      </c>
+      <c r="F31" s="4">
+        <f>AVERAGE(F6:F29)</f>
+        <v>15.803920955905932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.0723199808254386E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4">
+        <f>_xlfn.STDEV.P(E6:E29)</f>
+        <v>2.6154397957016644</v>
+      </c>
+      <c r="F32" s="4">
+        <f>_xlfn.STDEV.P(F6:F29)</f>
+        <v>5.9847041098202087</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E6:E29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.7547049441786202E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.160398309447881</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7.1291866028708401E-4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.3544204003503298E-2</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.89792663476877E-4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.3851589550843998E-2</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.2359170653907499E-3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0605330993495199E-3</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4.8922488038277501E-3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6.3399751633019003E-2</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.3822200956937701E-2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.06819277022148</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.0443189792663401E-2</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.41811224574576</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.2554347826086899E-2</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.8228893847758503</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.43530701754385E-2</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9.2478125319500197</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7.7848165869218496E-3</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.7300199338973696</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.01554066985645E-2</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.7648126872863599</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.2314896331738399E-2</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.3070072552559999</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.9040151351396199E-2</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6.7386345504984</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.30230082463607E-2</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6.3020500480436201</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.3613269537480001E-2</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5.1494961357440099</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6.9781818181818096E-3</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.84481107199462</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7.6006379585326998E-3</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.22628546632972</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.03849441786283E-2</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.0003583040491701</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.3800063795853201E-2</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.0922104296867801</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.8737735247208901E-2</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.4573726522323298</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7.8404465709728793E-3</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.3414871816682199</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9.2524401913875592E-3</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.79789553670282498</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5.5111961722487997E-3</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.2440432613116199</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.0914449760765501E-2</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.89684086318536105</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6">
+        <f>AVERAGE(B5:B28)</f>
+        <v>1.0608503720598404E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1.0608503720598404E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4">
+        <f>AVERAGE(E6:E29)</f>
+        <v>3.0726077790964208</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1.0608503720598404E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4">
+        <f>_xlfn.STDEV.P(E6:E29)</f>
+        <v>2.6061288780930219</v>
+      </c>
+      <c r="F32" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E29">
